--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3500386.643795226</v>
+        <v>3498134.564084018</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>93.52676208877617</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>102.2592397197931</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -835,7 +835,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>10.93787135974287</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>98.71130381745917</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>16.61609021059958</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>132.9870153438515</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>42.42206642987902</v>
+        <v>99.84759100840573</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,10 +1117,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>126.5388824951715</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>129.5398680316074</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.6353666620232</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1348,7 +1348,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>93.8384254377315</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1531,10 +1531,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505422</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>96.04906679049601</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.040488224226</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>113.3048871355474</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>51.36569740310382</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2090,10 +2090,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>126.9927435506632</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>66.2562870115476</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>55.52079624060472</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206821</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>10.63412424768254</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,16 +2956,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>55.52079624060473</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>7.61374123523283</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3199,13 +3199,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>55.52079624060473</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412173</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,13 +3436,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>140.7158229532351</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>66.2562870115476</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>178.3456785990314</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3907,16 +3907,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>115.7063133373722</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.13809394730835</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4144,13 +4144,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>66.25628701154712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1605.60199849331</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="C2" t="n">
-        <v>1236.639481552899</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D2" t="n">
-        <v>878.3737829461481</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>878.3737829461481</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>467.3878781565406</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2755.806928794324</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2382.341170533244</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1992.201838557432</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D3" t="n">
         <v>618.1564155387305</v>
@@ -4395,46 +4395,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297192</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>941.4970410294717</v>
+        <v>560.4166776763448</v>
       </c>
       <c r="C4" t="n">
-        <v>772.5608581015648</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>223.7776581231568</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>77.56047134101462</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4513,25 +4513,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U4" t="n">
-        <v>1605.819544963616</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V4" t="n">
-        <v>1351.135056757729</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W4" t="n">
-        <v>1351.135056757729</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X4" t="n">
-        <v>1123.145505859711</v>
+        <v>742.0651425065845</v>
       </c>
       <c r="Y4" t="n">
-        <v>1123.145505859711</v>
+        <v>742.0651425065845</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1274.53911114974</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>905.5765942093283</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>547.3108956025778</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4586,31 +4586,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2866.09759726723</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2731.767278738087</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X5" t="n">
-        <v>2731.767278738087</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>1661.138951213862</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C6" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D6" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E6" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F6" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G6" t="n">
-        <v>936.5735814686084</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H6" t="n">
-        <v>846.0716871064759</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I6" t="n">
-        <v>827.0643955080138</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>920.7416649986312</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>1525.704024291644</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F7" t="n">
         <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1794.613518694628</v>
+        <v>1323.155438708629</v>
       </c>
       <c r="V7" t="n">
-        <v>1539.929030488741</v>
+        <v>1068.470950502742</v>
       </c>
       <c r="W7" t="n">
-        <v>1250.51186045178</v>
+        <v>779.0537804657819</v>
       </c>
       <c r="X7" t="n">
-        <v>1250.51186045178</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>551.0642295677645</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2175.400891308158</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1806.438374367746</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1448.172675760996</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1062.384423162752</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>651.398518373144</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>236.3260682181405</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>3325.605821609171</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2952.140063348092</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>2562.00073137228</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
@@ -4878,43 +4878,43 @@
         <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>629.780563451991</v>
+        <v>188.3660221513988</v>
       </c>
       <c r="C10" t="n">
-        <v>460.8443805240842</v>
+        <v>188.3660221513988</v>
       </c>
       <c r="D10" t="n">
-        <v>310.7277411117484</v>
+        <v>188.3660221513988</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>188.3660221513988</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.425065783662</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1321.638777462721</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W10" t="n">
-        <v>1032.221607425761</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X10" t="n">
-        <v>1032.221607425761</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="Y10" t="n">
-        <v>811.4290282822308</v>
+        <v>370.0144869816385</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>315.9123021921476</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>913.2907898186995</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373306</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612593</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2495.978408795859</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L13" t="n">
         <v>826.1405381797747</v>
@@ -5221,28 +5221,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>244.2098454714573</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.913939313768</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1964.511902868375</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>923.4916164683287</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C16" t="n">
-        <v>754.5554335404219</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D16" t="n">
-        <v>604.4387941280861</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.4916164683287</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5492,31 +5492,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,37 +5525,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273906</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>95.58405025273906</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P18" t="n">
         <v>2283.159972732779</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>931.4710609784063</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504994</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2395.078540748843</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2395.078540748843</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2395.078540748843</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5729,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438171</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>849.3843576263199</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C22" t="n">
-        <v>680.448174698413</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860773</v>
+        <v>766.1780053015053</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>618.2649117191122</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>471.3749642212018</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>304.1788649360818</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1031.03282245656</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5984,37 +5984,37 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>634.5603720565524</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1231.938859683104</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>296.7882229101294</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>149.8982754122191</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,64 +6212,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273905</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>800.5007694647281</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>631.5645865368213</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>481.4479471244855</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>333.5348535420924</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>186.644906044182</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1492342949679</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961526</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>913.2907898186995</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373306</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612593</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327652</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048583</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925226</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E31" t="n">
-        <v>296.7882229101294</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F31" t="n">
-        <v>149.8982754122191</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>101.5073107603283</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.4026036630049</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6689,28 +6689,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327652</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C34" t="n">
-        <v>594.8179559048583</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D34" t="n">
-        <v>444.7013164925226</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>296.7882229101294</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>149.8982754122191</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>149.8982754122191</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>149.8982754122191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.4026036630049</v>
+        <v>697.5276345711974</v>
       </c>
     </row>
     <row r="35">
@@ -6917,49 +6917,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273906</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>95.58405025273906</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>692.9625378792909</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>849.3843576263199</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C37" t="n">
-        <v>680.448174698413</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D37" t="n">
-        <v>530.3315352860773</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="E37" t="n">
-        <v>382.4184417036842</v>
+        <v>606.6423399580283</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>459.7523924601179</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2312.991837396757</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1251.82540160009</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>1031.03282245656</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7160,16 +7160,16 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7178,13 +7178,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7251,19 +7251,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1804.131916132773</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,7 +7400,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7491,25 +7491,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>1140.291933891999</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>991.7436897307817</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>822.8075068028749</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>672.6908673905391</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>524.777773808146</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>377.8878263102356</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="G43" t="n">
-        <v>210.6917270251155</v>
+        <v>282.1326295060853</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>140.4207983482833</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1394.184733704551</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1173.392154561021</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7646,7 +7646,7 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
@@ -7725,22 +7725,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.652278938886</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>916.3099000622261</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>747.3737171343192</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>597.2570777219835</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>449.3439841395904</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>302.45403664168</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1546.740494934013</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>1318.750944035996</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>1097.958364892466</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23419,10 +23419,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.3918499711696</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>129.6605885985412</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.2063328744018</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>33.12907551102174</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>12.04875628922491</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.00954930701784</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>13.30196929556064</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>151.1491633157407</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>144.634190040853</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>154.8900140445863</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>25.74504007796079</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.00531331087754</v>
       </c>
     </row>
     <row r="35">
@@ -25309,13 +25309,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>24.80831533903373</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>114.769998990097</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25597,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>40.23897475306342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.58839950885167</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>35.12774237125718</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26032,13 +26032,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>99.26785128072173</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26071,10 +26071,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>688948.3954732679</v>
+        <v>688948.395473268</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>677484.8800794891</v>
+        <v>677484.880079489</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>677484.8800794891</v>
+        <v>677484.880079489</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>677484.8800794892</v>
+        <v>677484.880079489</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>677484.8800794891</v>
+        <v>677484.880079489</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>677484.8800794891</v>
+        <v>677484.880079489</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>677484.8800794891</v>
+        <v>677484.880079489</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>677484.8800794892</v>
+        <v>677484.880079489</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>759463.6371244621</v>
+      </c>
+      <c r="C2" t="n">
+        <v>759463.6371244625</v>
+      </c>
+      <c r="D2" t="n">
         <v>759463.6371244623</v>
-      </c>
-      <c r="C2" t="n">
-        <v>759463.6371244624</v>
-      </c>
-      <c r="D2" t="n">
-        <v>759463.6371244624</v>
       </c>
       <c r="E2" t="n">
         <v>746610.6047132555</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="G2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="H2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>746610.6047132555</v>
       </c>
-      <c r="I2" t="n">
-        <v>746610.6047132554</v>
-      </c>
       <c r="J2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="K2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="L2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="M2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="N2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.604713255</v>
       </c>
       <c r="P2" t="n">
         <v>746610.6047132552</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316942</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316945</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316938</v>
+        <v>91573.95495316944</v>
       </c>
       <c r="E4" t="n">
+        <v>12386.92018181816</v>
+      </c>
+      <c r="F4" t="n">
+        <v>12386.92018181819</v>
+      </c>
+      <c r="G4" t="n">
+        <v>12386.92018181815</v>
+      </c>
+      <c r="H4" t="n">
+        <v>12386.92018181815</v>
+      </c>
+      <c r="I4" t="n">
         <v>12386.92018181813</v>
       </c>
-      <c r="F4" t="n">
-        <v>12386.9201818181</v>
-      </c>
-      <c r="G4" t="n">
-        <v>12386.92018181811</v>
-      </c>
-      <c r="H4" t="n">
-        <v>12386.92018181811</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12386.92018181807</v>
-      </c>
       <c r="J4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181817</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181812</v>
       </c>
       <c r="L4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181815</v>
       </c>
       <c r="N4" t="n">
-        <v>12386.92018181815</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="O4" t="n">
         <v>12386.92018181813</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-768789.0041176931</v>
+        <v>-768789.0041176933</v>
       </c>
       <c r="C6" t="n">
-        <v>559955.7416098998</v>
+        <v>559955.7416099</v>
       </c>
       <c r="D6" t="n">
-        <v>559955.7416098998</v>
+        <v>559955.7416098996</v>
       </c>
       <c r="E6" t="n">
-        <v>307688.6929001749</v>
+        <v>307653.9549747391</v>
       </c>
       <c r="F6" t="n">
-        <v>633101.1547075303</v>
+        <v>633066.4167820949</v>
       </c>
       <c r="G6" t="n">
-        <v>633101.15470753</v>
+        <v>633066.4167820946</v>
       </c>
       <c r="H6" t="n">
-        <v>633101.1547075303</v>
+        <v>633066.4167820944</v>
       </c>
       <c r="I6" t="n">
-        <v>633101.1547075303</v>
+        <v>633066.4167820947</v>
       </c>
       <c r="J6" t="n">
-        <v>415569.9523102528</v>
+        <v>415535.2143848168</v>
       </c>
       <c r="K6" t="n">
-        <v>633101.1547075303</v>
+        <v>633066.4167820945</v>
       </c>
       <c r="L6" t="n">
-        <v>633101.1547075303</v>
+        <v>633066.4167820945</v>
       </c>
       <c r="M6" t="n">
-        <v>548046.1267720181</v>
+        <v>548011.3888465825</v>
       </c>
       <c r="N6" t="n">
-        <v>633101.15470753</v>
+        <v>633066.4167820944</v>
       </c>
       <c r="O6" t="n">
-        <v>633101.1547075302</v>
+        <v>633066.4167820942</v>
       </c>
       <c r="P6" t="n">
-        <v>633101.15470753</v>
+        <v>633066.4167820944</v>
       </c>
     </row>
   </sheetData>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>289.2070795747044</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>308.6624859336603</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,10 +27436,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27543,10 +27543,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>85.41454905009522</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,13 +27585,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>187.5005343881537</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>365.3142798616622</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>216.2539533735615</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,13 +27822,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>243.7897717757339</v>
+        <v>186.3642471972071</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>168.0688818921489</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>240.1912326468616</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>24.78568136090806</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,7 +28068,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>158.2992178860965</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29089,7 +29089,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,16 +31841,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>362.8934092184356</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437244</v>
@@ -31859,7 +31859,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>160.6314956130953</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>289.7537444526271</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>732.4825987614911</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>195.7502366106279</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>240.4469701760385</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>194.5189324111248</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>398.1179220955532</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>316.6133175811567</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33418,34 +33418,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O33" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>752.2150000824574</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33898,7 +33898,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33971,22 +33971,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>198.5607970756955</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34211,19 +34211,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>622.4211036182646</v>
       </c>
       <c r="M42" t="n">
-        <v>545.9074025036812</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34366,10 +34366,10 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34445,7 +34445,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,7 +34454,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>171.5999003578897</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,7 +34463,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,16 +35489,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>224.3390294385614</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.48457599928</v>
@@ -35507,7 +35507,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>20.64972152707382</v>
       </c>
       <c r="R12" t="n">
         <v>37.00975247789214</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>151.9123054782681</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>590.3485648394727</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>101.8925903961643</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>55.96455263125056</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>259.5635423156791</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>174.4792836591383</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O33" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>620.8732879991242</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37546,7 +37546,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37619,22 +37619,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>55.96455263125101</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,19 +37859,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="M42" t="n">
-        <v>403.7733685816629</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,10 +38014,10 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38093,7 +38093,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,7 +38102,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>29.46586643587134</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,7 +38111,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
